--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinschaal/Library/Mobile Documents/com~apple~CloudDocs/PhD/08_Teaching/Stats_Econometrics_25/Tutorial_1/01_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennissydow/PycharmProjects/AufgabenEconometrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA148A-62B1-654D-B40B-00B31DED1A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF1031C-C20F-424E-B090-20488E726247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35220" yWindow="3020" windowWidth="28800" windowHeight="12220" xr2:uid="{F6A9208F-7A7D-4B65-A2B7-5D50C14DFE73}"/>
   </bookViews>
   <sheets>
     <sheet name="NVDA" sheetId="2" r:id="rId1"/>
-    <sheet name="BBG_Original" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="SpreadsheetBuilder_1" hidden="1">BBG_Original!$A$1:$B$7</definedName>
+    <definedName name="SpreadsheetBuilder_1" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,22 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>NVDA US Equity</t>
-  </si>
-  <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>PX_LAST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>NVDA</t>
   </si>
@@ -101,7 +85,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -117,9 +101,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +141,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -263,7 +247,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,10 +407,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6074,5702 +6058,6 @@
         <v>45915</v>
       </c>
       <c r="B707">
-        <v>175.17500000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0EF5B0-870D-4189-8505-160C8433E0C3}">
-  <dimension ref="A1:B712"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="e">
-        <f ca="1">_xll.BFieldInfo(B$6)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="e">
-        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=706")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B7">
-        <v>14.614000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B8">
-        <v>14.315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44930</v>
-      </c>
-      <c r="B9">
-        <v>14.749000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44931</v>
-      </c>
-      <c r="B10">
-        <v>14.265000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44932</v>
-      </c>
-      <c r="B11">
-        <v>14.859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44935</v>
-      </c>
-      <c r="B12">
-        <v>15.628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>44936</v>
-      </c>
-      <c r="B13">
-        <v>15.909000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>44937</v>
-      </c>
-      <c r="B14">
-        <v>16.001000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44938</v>
-      </c>
-      <c r="B15">
-        <v>16.510999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44939</v>
-      </c>
-      <c r="B16">
-        <v>16.899000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>44942</v>
-      </c>
-      <c r="B17">
-        <v>16.899000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>44943</v>
-      </c>
-      <c r="B18">
-        <v>17.702000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B19">
-        <v>17.376999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>44945</v>
-      </c>
-      <c r="B20">
-        <v>16.765000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>44946</v>
-      </c>
-      <c r="B21">
-        <v>17.838999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>44949</v>
-      </c>
-      <c r="B22">
-        <v>19.193000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>44950</v>
-      </c>
-      <c r="B23">
-        <v>19.265000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>44951</v>
-      </c>
-      <c r="B24">
-        <v>19.323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>44952</v>
-      </c>
-      <c r="B25">
-        <v>19.802</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>44953</v>
-      </c>
-      <c r="B26">
-        <v>20.364999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>44956</v>
-      </c>
-      <c r="B27">
-        <v>19.161999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>44957</v>
-      </c>
-      <c r="B28">
-        <v>19.536999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B29">
-        <v>20.943000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>44959</v>
-      </c>
-      <c r="B30">
-        <v>21.709</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>44960</v>
-      </c>
-      <c r="B31">
-        <v>21.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B32">
-        <v>21.088999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B33">
-        <v>22.172999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>44965</v>
-      </c>
-      <c r="B34">
-        <v>22.204999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>44966</v>
-      </c>
-      <c r="B35">
-        <v>22.337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>44967</v>
-      </c>
-      <c r="B36">
-        <v>21.265000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>44970</v>
-      </c>
-      <c r="B37">
-        <v>21.788</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>44971</v>
-      </c>
-      <c r="B38">
-        <v>22.971</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B39">
-        <v>22.763999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>44973</v>
-      </c>
-      <c r="B40">
-        <v>22.001999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B41">
-        <v>21.388000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>44977</v>
-      </c>
-      <c r="B42">
-        <v>21.388000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>44978</v>
-      </c>
-      <c r="B43">
-        <v>20.655000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>44979</v>
-      </c>
-      <c r="B44">
-        <v>20.754000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>44980</v>
-      </c>
-      <c r="B45">
-        <v>23.664000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>44981</v>
-      </c>
-      <c r="B46">
-        <v>23.286000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>44984</v>
-      </c>
-      <c r="B47">
-        <v>23.501000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>44985</v>
-      </c>
-      <c r="B48">
-        <v>23.216000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>44986</v>
-      </c>
-      <c r="B49">
-        <v>22.698</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>44987</v>
-      </c>
-      <c r="B50">
-        <v>23.314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>44988</v>
-      </c>
-      <c r="B51">
-        <v>23.89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>44991</v>
-      </c>
-      <c r="B52">
-        <v>23.553999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>44992</v>
-      </c>
-      <c r="B53">
-        <v>23.288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>44993</v>
-      </c>
-      <c r="B54">
-        <v>24.181000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>44994</v>
-      </c>
-      <c r="B55">
-        <v>23.436</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>44995</v>
-      </c>
-      <c r="B56">
-        <v>22.965</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>44998</v>
-      </c>
-      <c r="B57">
-        <v>22.966000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>44999</v>
-      </c>
-      <c r="B58">
-        <v>24.062999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>45000</v>
-      </c>
-      <c r="B59">
-        <v>24.228000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>45001</v>
-      </c>
-      <c r="B60">
-        <v>25.541</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>45002</v>
-      </c>
-      <c r="B61">
-        <v>25.725000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>45005</v>
-      </c>
-      <c r="B62">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>45006</v>
-      </c>
-      <c r="B63">
-        <v>26.199000000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>45007</v>
-      </c>
-      <c r="B64">
-        <v>26.468</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>45008</v>
-      </c>
-      <c r="B65">
-        <v>27.190999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>45009</v>
-      </c>
-      <c r="B66">
-        <v>26.779</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>45012</v>
-      </c>
-      <c r="B67">
-        <v>26.530999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>45013</v>
-      </c>
-      <c r="B68">
-        <v>26.41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>45014</v>
-      </c>
-      <c r="B69">
-        <v>26.984000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>45015</v>
-      </c>
-      <c r="B70">
-        <v>27.382999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B71">
-        <v>27.777000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>45019</v>
-      </c>
-      <c r="B72">
-        <v>27.965</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>45020</v>
-      </c>
-      <c r="B73">
-        <v>27.452999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>45021</v>
-      </c>
-      <c r="B74">
-        <v>26.881</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>45022</v>
-      </c>
-      <c r="B75">
-        <v>27.036999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>45023</v>
-      </c>
-      <c r="B76">
-        <v>27.036999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>45026</v>
-      </c>
-      <c r="B77">
-        <v>27.579000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>45027</v>
-      </c>
-      <c r="B78">
-        <v>27.169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>45028</v>
-      </c>
-      <c r="B79">
-        <v>26.495000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>45029</v>
-      </c>
-      <c r="B80">
-        <v>26.463000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>45030</v>
-      </c>
-      <c r="B81">
-        <v>26.757999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>45033</v>
-      </c>
-      <c r="B82">
-        <v>27.001999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>45034</v>
-      </c>
-      <c r="B83">
-        <v>27.667000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>45035</v>
-      </c>
-      <c r="B84">
-        <v>27.931000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>45036</v>
-      </c>
-      <c r="B85">
-        <v>27.103999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>45037</v>
-      </c>
-      <c r="B86">
-        <v>27.119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>45040</v>
-      </c>
-      <c r="B87">
-        <v>27.042000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B88">
-        <v>26.241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>45042</v>
-      </c>
-      <c r="B89">
-        <v>26.956</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>45043</v>
-      </c>
-      <c r="B90">
-        <v>27.225999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>45044</v>
-      </c>
-      <c r="B91">
-        <v>27.748999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>45047</v>
-      </c>
-      <c r="B92">
-        <v>28.91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>45048</v>
-      </c>
-      <c r="B93">
-        <v>28.21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>45049</v>
-      </c>
-      <c r="B94">
-        <v>27.802</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>45050</v>
-      </c>
-      <c r="B95">
-        <v>27.562000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>45051</v>
-      </c>
-      <c r="B96">
-        <v>28.68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>45054</v>
-      </c>
-      <c r="B97">
-        <v>29.151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>45055</v>
-      </c>
-      <c r="B98">
-        <v>28.571000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>45056</v>
-      </c>
-      <c r="B99">
-        <v>28.885000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>45057</v>
-      </c>
-      <c r="B100">
-        <v>28.577999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>45058</v>
-      </c>
-      <c r="B101">
-        <v>28.34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>45061</v>
-      </c>
-      <c r="B102">
-        <v>28.952999999999999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
-        <v>45062</v>
-      </c>
-      <c r="B103">
-        <v>29.213000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>45063</v>
-      </c>
-      <c r="B104">
-        <v>30.178000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>45064</v>
-      </c>
-      <c r="B105">
-        <v>31.678000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>45065</v>
-      </c>
-      <c r="B106">
-        <v>31.263999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>45068</v>
-      </c>
-      <c r="B107">
-        <v>31.175999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>45069</v>
-      </c>
-      <c r="B108">
-        <v>30.687999999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>45070</v>
-      </c>
-      <c r="B109">
-        <v>30.538</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
-        <v>45071</v>
-      </c>
-      <c r="B110">
-        <v>37.979999999999997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
-        <v>45072</v>
-      </c>
-      <c r="B111">
-        <v>38.945999999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>45075</v>
-      </c>
-      <c r="B112">
-        <v>38.945999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>45076</v>
-      </c>
-      <c r="B113">
-        <v>40.110999999999997</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>45077</v>
-      </c>
-      <c r="B114">
-        <v>37.834000000000003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
-        <v>45078</v>
-      </c>
-      <c r="B115">
-        <v>39.770000000000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
-        <v>45079</v>
-      </c>
-      <c r="B116">
-        <v>39.326999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>45082</v>
-      </c>
-      <c r="B117">
-        <v>39.170999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
-        <v>45083</v>
-      </c>
-      <c r="B118">
-        <v>38.654000000000003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
-        <v>45084</v>
-      </c>
-      <c r="B119">
-        <v>37.475000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
-        <v>45085</v>
-      </c>
-      <c r="B120">
-        <v>38.51</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
-        <v>45086</v>
-      </c>
-      <c r="B121">
-        <v>38.770000000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
-        <v>45089</v>
-      </c>
-      <c r="B122">
-        <v>39.481999999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>45090</v>
-      </c>
-      <c r="B123">
-        <v>41.021999999999998</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>45091</v>
-      </c>
-      <c r="B124">
-        <v>42.997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
-        <v>45092</v>
-      </c>
-      <c r="B125">
-        <v>42.652999999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>45093</v>
-      </c>
-      <c r="B126">
-        <v>42.692</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>45096</v>
-      </c>
-      <c r="B127">
-        <v>42.692</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>45097</v>
-      </c>
-      <c r="B128">
-        <v>43.808</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>45098</v>
-      </c>
-      <c r="B129">
-        <v>43.045000000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>45099</v>
-      </c>
-      <c r="B130">
-        <v>43.024999999999999</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>45100</v>
-      </c>
-      <c r="B131">
-        <v>42.209000000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>45103</v>
-      </c>
-      <c r="B132">
-        <v>40.631999999999998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>45104</v>
-      </c>
-      <c r="B133">
-        <v>41.875999999999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>45105</v>
-      </c>
-      <c r="B134">
-        <v>41.116999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>45106</v>
-      </c>
-      <c r="B135">
-        <v>40.822000000000003</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B136">
-        <v>42.302</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>45110</v>
-      </c>
-      <c r="B137">
-        <v>42.412999999999997</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>45111</v>
-      </c>
-      <c r="B138">
-        <v>42.412999999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>45112</v>
-      </c>
-      <c r="B139">
-        <v>42.317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>45113</v>
-      </c>
-      <c r="B140">
-        <v>42.103000000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>45114</v>
-      </c>
-      <c r="B141">
-        <v>42.503</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>45117</v>
-      </c>
-      <c r="B142">
-        <v>42.18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>45118</v>
-      </c>
-      <c r="B143">
-        <v>42.405000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>45119</v>
-      </c>
-      <c r="B144">
-        <v>43.902000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>45120</v>
-      </c>
-      <c r="B145">
-        <v>45.976999999999997</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>45121</v>
-      </c>
-      <c r="B146">
-        <v>45.469000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>45124</v>
-      </c>
-      <c r="B147">
-        <v>46.460999999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>45125</v>
-      </c>
-      <c r="B148">
-        <v>47.494</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>45126</v>
-      </c>
-      <c r="B149">
-        <v>47.076999999999998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>45127</v>
-      </c>
-      <c r="B150">
-        <v>45.52</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>45128</v>
-      </c>
-      <c r="B151">
-        <v>44.308999999999997</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>45131</v>
-      </c>
-      <c r="B152">
-        <v>44.612000000000002</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>45132</v>
-      </c>
-      <c r="B153">
-        <v>45.679000000000002</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>45133</v>
-      </c>
-      <c r="B154">
-        <v>45.451999999999998</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>45134</v>
-      </c>
-      <c r="B155">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>45135</v>
-      </c>
-      <c r="B156">
-        <v>46.75</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>45138</v>
-      </c>
-      <c r="B157">
-        <v>46.728999999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>45139</v>
-      </c>
-      <c r="B158">
-        <v>46.506999999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>45140</v>
-      </c>
-      <c r="B159">
-        <v>44.268999999999998</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>45141</v>
-      </c>
-      <c r="B160">
-        <v>44.515000000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
-        <v>45142</v>
-      </c>
-      <c r="B161">
-        <v>44.68</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
-        <v>45145</v>
-      </c>
-      <c r="B162">
-        <v>45.416499999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>45146</v>
-      </c>
-      <c r="B163">
-        <v>44.664000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>45147</v>
-      </c>
-      <c r="B164">
-        <v>42.554000000000002</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>45148</v>
-      </c>
-      <c r="B165">
-        <v>42.387999999999998</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>45149</v>
-      </c>
-      <c r="B166">
-        <v>40.854999999999997</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>45152</v>
-      </c>
-      <c r="B167">
-        <v>43.753</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>45153</v>
-      </c>
-      <c r="B168">
-        <v>43.94</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>45154</v>
-      </c>
-      <c r="B169">
-        <v>43.485999999999997</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>45155</v>
-      </c>
-      <c r="B170">
-        <v>43.343499999999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>45156</v>
-      </c>
-      <c r="B171">
-        <v>43.298999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>45159</v>
-      </c>
-      <c r="B172">
-        <v>46.966999999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>45160</v>
-      </c>
-      <c r="B173">
-        <v>45.667999999999999</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>45161</v>
-      </c>
-      <c r="B174">
-        <v>47.116</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>45162</v>
-      </c>
-      <c r="B175">
-        <v>47.162999999999997</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>45163</v>
-      </c>
-      <c r="B176">
-        <v>46.018000000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>45166</v>
-      </c>
-      <c r="B177">
-        <v>46.835000000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>45167</v>
-      </c>
-      <c r="B178">
-        <v>48.783999999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>45168</v>
-      </c>
-      <c r="B179">
-        <v>49.264000000000003</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>45169</v>
-      </c>
-      <c r="B180">
-        <v>49.354999999999997</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>45170</v>
-      </c>
-      <c r="B181">
-        <v>48.509</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>45173</v>
-      </c>
-      <c r="B182">
-        <v>48.509</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>45174</v>
-      </c>
-      <c r="B183">
-        <v>48.548000000000002</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>45175</v>
-      </c>
-      <c r="B184">
-        <v>47.061</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>45176</v>
-      </c>
-      <c r="B185">
-        <v>46.241</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>45177</v>
-      </c>
-      <c r="B186">
-        <v>45.572000000000003</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>45180</v>
-      </c>
-      <c r="B187">
-        <v>45.177999999999997</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>45181</v>
-      </c>
-      <c r="B188">
-        <v>44.87</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>45182</v>
-      </c>
-      <c r="B189">
-        <v>45.484999999999999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>45183</v>
-      </c>
-      <c r="B190">
-        <v>45.581000000000003</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>45184</v>
-      </c>
-      <c r="B191">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
-        <v>45187</v>
-      </c>
-      <c r="B192">
-        <v>43.966000000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
-        <v>45188</v>
-      </c>
-      <c r="B193">
-        <v>43.52</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
-        <v>45189</v>
-      </c>
-      <c r="B194">
-        <v>42.238999999999997</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
-        <v>45190</v>
-      </c>
-      <c r="B195">
-        <v>41.017000000000003</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
-        <v>45191</v>
-      </c>
-      <c r="B196">
-        <v>41.61</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
-        <v>45194</v>
-      </c>
-      <c r="B197">
-        <v>42.222000000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
-        <v>45195</v>
-      </c>
-      <c r="B198">
-        <v>41.911000000000001</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
-        <v>45196</v>
-      </c>
-      <c r="B199">
-        <v>42.468000000000004</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>45197</v>
-      </c>
-      <c r="B200">
-        <v>43.088999999999999</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
-        <v>45198</v>
-      </c>
-      <c r="B201">
-        <v>43.499000000000002</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
-        <v>45201</v>
-      </c>
-      <c r="B202">
-        <v>44.781999999999996</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>45202</v>
-      </c>
-      <c r="B203">
-        <v>43.517000000000003</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
-        <v>45203</v>
-      </c>
-      <c r="B204">
-        <v>44.040999999999997</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>45204</v>
-      </c>
-      <c r="B205">
-        <v>44.688000000000002</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
-        <v>45205</v>
-      </c>
-      <c r="B206">
-        <v>45.762</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
-        <v>45208</v>
-      </c>
-      <c r="B207">
-        <v>45.273000000000003</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
-        <v>45209</v>
-      </c>
-      <c r="B208">
-        <v>45.798000000000002</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
-        <v>45210</v>
-      </c>
-      <c r="B209">
-        <v>46.805999999999997</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
-        <v>45211</v>
-      </c>
-      <c r="B210">
-        <v>46.945</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>45212</v>
-      </c>
-      <c r="B211">
-        <v>45.460999999999999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
-        <v>45215</v>
-      </c>
-      <c r="B212">
-        <v>46.094999999999999</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
-        <v>45216</v>
-      </c>
-      <c r="B213">
-        <v>43.938000000000002</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
-        <v>45217</v>
-      </c>
-      <c r="B214">
-        <v>42.195999999999998</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
-        <v>45218</v>
-      </c>
-      <c r="B215">
-        <v>42.100999999999999</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
-        <v>45219</v>
-      </c>
-      <c r="B216">
-        <v>41.387</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
-        <v>45222</v>
-      </c>
-      <c r="B217">
-        <v>42.975000000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
-        <v>45223</v>
-      </c>
-      <c r="B218">
-        <v>43.662999999999997</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
-        <v>45224</v>
-      </c>
-      <c r="B219">
-        <v>41.779000000000003</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>45225</v>
-      </c>
-      <c r="B220">
-        <v>40.326000000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
-        <v>45226</v>
-      </c>
-      <c r="B221">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
-        <v>45229</v>
-      </c>
-      <c r="B222">
-        <v>41.161000000000001</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
-        <v>45230</v>
-      </c>
-      <c r="B223">
-        <v>40.78</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B224">
-        <v>42.325000000000003</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
-        <v>45232</v>
-      </c>
-      <c r="B225">
-        <v>43.506</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
-        <v>45233</v>
-      </c>
-      <c r="B226">
-        <v>45.005000000000003</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
-        <v>45236</v>
-      </c>
-      <c r="B227">
-        <v>45.750999999999998</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
-        <v>45237</v>
-      </c>
-      <c r="B228">
-        <v>45.954999999999998</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
-        <v>45238</v>
-      </c>
-      <c r="B229">
-        <v>46.573999999999998</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
-        <v>45239</v>
-      </c>
-      <c r="B230">
-        <v>46.95</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
-        <v>45240</v>
-      </c>
-      <c r="B231">
-        <v>48.335000000000001</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
-        <v>45243</v>
-      </c>
-      <c r="B232">
-        <v>48.62</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
-        <v>45244</v>
-      </c>
-      <c r="B233">
-        <v>49.655999999999999</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B234">
-        <v>48.887999999999998</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B235">
-        <v>49.48</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B236">
-        <v>49.298000000000002</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B237">
-        <v>50.408999999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
-        <v>45251</v>
-      </c>
-      <c r="B238">
-        <v>49.944000000000003</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B239">
-        <v>48.716000000000001</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B240">
-        <v>48.716000000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
-        <v>45254</v>
-      </c>
-      <c r="B241">
-        <v>47.776000000000003</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B242">
-        <v>48.241999999999997</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B243">
-        <v>47.820999999999998</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B244">
-        <v>48.14</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B245">
-        <v>46.77</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
-        <v>45261</v>
-      </c>
-      <c r="B246">
-        <v>46.765000000000001</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
-        <v>45264</v>
-      </c>
-      <c r="B247">
-        <v>45.51</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>45265</v>
-      </c>
-      <c r="B248">
-        <v>46.566000000000003</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B249">
-        <v>45.503</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
-        <v>45267</v>
-      </c>
-      <c r="B250">
-        <v>46.595999999999997</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
-        <v>45268</v>
-      </c>
-      <c r="B251">
-        <v>47.506</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
-        <v>45271</v>
-      </c>
-      <c r="B252">
-        <v>46.627000000000002</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
-        <v>45272</v>
-      </c>
-      <c r="B253">
-        <v>47.656999999999996</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
-        <v>45273</v>
-      </c>
-      <c r="B254">
-        <v>48.088000000000001</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
-        <v>45274</v>
-      </c>
-      <c r="B255">
-        <v>48.35</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
-        <v>45275</v>
-      </c>
-      <c r="B256">
-        <v>48.89</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
-        <v>45278</v>
-      </c>
-      <c r="B257">
-        <v>50.076999999999998</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B258">
-        <v>49.603999999999999</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B259">
-        <v>48.110999999999997</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
-        <v>45281</v>
-      </c>
-      <c r="B260">
-        <v>48.99</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B261">
-        <v>48.83</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
-        <v>45285</v>
-      </c>
-      <c r="B262">
-        <v>48.83</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
-        <v>45286</v>
-      </c>
-      <c r="B263">
-        <v>49.279000000000003</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
-        <v>45287</v>
-      </c>
-      <c r="B264">
-        <v>49.417000000000002</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
-        <v>45288</v>
-      </c>
-      <c r="B265">
-        <v>49.521999999999998</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B266">
-        <v>49.521999999999998</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B267">
-        <v>49.521999999999998</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
-        <v>45293</v>
-      </c>
-      <c r="B268">
-        <v>48.167999999999999</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
-        <v>45294</v>
-      </c>
-      <c r="B269">
-        <v>47.569000000000003</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
-        <v>45295</v>
-      </c>
-      <c r="B270">
-        <v>47.997999999999998</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B271">
-        <v>49.097000000000001</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
-        <v>45299</v>
-      </c>
-      <c r="B272">
-        <v>52.253</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
-        <v>45300</v>
-      </c>
-      <c r="B273">
-        <v>53.14</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B274">
-        <v>54.35</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
-        <v>45302</v>
-      </c>
-      <c r="B275">
-        <v>54.822000000000003</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B276">
-        <v>54.71</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
-        <v>45306</v>
-      </c>
-      <c r="B277">
-        <v>54.71</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
-        <v>45307</v>
-      </c>
-      <c r="B278">
-        <v>56.381999999999998</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
-        <v>45308</v>
-      </c>
-      <c r="B279">
-        <v>56.052999999999997</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
-        <v>45309</v>
-      </c>
-      <c r="B280">
-        <v>57.106999999999999</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
-        <v>45310</v>
-      </c>
-      <c r="B281">
-        <v>59.491</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
-        <v>45313</v>
-      </c>
-      <c r="B282">
-        <v>59.654000000000003</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
-        <v>45314</v>
-      </c>
-      <c r="B283">
-        <v>59.872999999999998</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
-        <v>45315</v>
-      </c>
-      <c r="B284">
-        <v>61.362000000000002</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
-        <v>45316</v>
-      </c>
-      <c r="B285">
-        <v>61.616999999999997</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B286">
-        <v>61.030999999999999</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B287">
-        <v>62.465000000000003</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B288">
-        <v>62.774000000000001</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B289">
-        <v>61.527000000000001</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B290">
-        <v>63.027000000000001</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
-        <v>45324</v>
-      </c>
-      <c r="B291">
-        <v>66.16</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
-        <v>45327</v>
-      </c>
-      <c r="B292">
-        <v>69.331999999999994</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
-        <v>45328</v>
-      </c>
-      <c r="B293">
-        <v>68.222999999999999</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B294">
-        <v>70.099000000000004</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B295">
-        <v>69.641000000000005</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B296">
-        <v>72.132999999999996</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B297">
-        <v>72.248000000000005</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
-        <v>45335</v>
-      </c>
-      <c r="B298">
-        <v>72.128</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
-        <v>45336</v>
-      </c>
-      <c r="B299">
-        <v>73.900000000000006</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B300">
-        <v>72.658000000000001</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B301">
-        <v>72.613</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B302">
-        <v>72.613</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
-        <v>45342</v>
-      </c>
-      <c r="B303">
-        <v>69.451999999999998</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
-        <v>45343</v>
-      </c>
-      <c r="B304">
-        <v>67.471999999999994</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
-        <v>45344</v>
-      </c>
-      <c r="B305">
-        <v>78.537999999999997</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
-        <v>45345</v>
-      </c>
-      <c r="B306">
-        <v>78.816999999999993</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B307">
-        <v>79.091999999999999</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
-        <v>45349</v>
-      </c>
-      <c r="B308">
-        <v>78.700999999999993</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B309">
-        <v>77.662999999999997</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B310">
-        <v>79.111999999999995</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B311">
-        <v>82.278999999999996</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
-        <v>45355</v>
-      </c>
-      <c r="B312">
-        <v>85.236999999999995</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
-        <v>45356</v>
-      </c>
-      <c r="B313">
-        <v>85.963999999999999</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
-        <v>45357</v>
-      </c>
-      <c r="B314">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
-        <v>45358</v>
-      </c>
-      <c r="B315">
-        <v>92.668999999999997</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
-        <v>45359</v>
-      </c>
-      <c r="B316">
-        <v>87.528000000000006</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
-        <v>45362</v>
-      </c>
-      <c r="B317">
-        <v>85.774000000000001</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
-        <v>45363</v>
-      </c>
-      <c r="B318">
-        <v>91.912999999999997</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
-        <v>45364</v>
-      </c>
-      <c r="B319">
-        <v>90.888000000000005</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
-        <v>45365</v>
-      </c>
-      <c r="B320">
-        <v>87.944000000000003</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
-        <v>45366</v>
-      </c>
-      <c r="B321">
-        <v>87.836500000000001</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
-        <v>45369</v>
-      </c>
-      <c r="B322">
-        <v>88.454999999999998</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
-        <v>45370</v>
-      </c>
-      <c r="B323">
-        <v>89.397999999999996</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
-        <v>45371</v>
-      </c>
-      <c r="B324">
-        <v>90.372</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
-        <v>45372</v>
-      </c>
-      <c r="B325">
-        <v>91.435000000000002</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
-        <v>45373</v>
-      </c>
-      <c r="B326">
-        <v>94.289000000000001</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
-        <v>45376</v>
-      </c>
-      <c r="B327">
-        <v>95.001999999999995</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
-        <v>45377</v>
-      </c>
-      <c r="B328">
-        <v>92.561000000000007</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
-        <v>45378</v>
-      </c>
-      <c r="B329">
-        <v>90.25</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
-        <v>45379</v>
-      </c>
-      <c r="B330">
-        <v>90.355999999999995</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
-        <v>45380</v>
-      </c>
-      <c r="B331">
-        <v>90.355999999999995</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
-        <v>45383</v>
-      </c>
-      <c r="B332">
-        <v>90.363</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
-        <v>45384</v>
-      </c>
-      <c r="B333">
-        <v>89.451999999999998</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
-        <v>45385</v>
-      </c>
-      <c r="B334">
-        <v>88.963999999999999</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
-        <v>45386</v>
-      </c>
-      <c r="B335">
-        <v>85.905000000000001</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
-        <v>45387</v>
-      </c>
-      <c r="B336">
-        <v>88.007999999999996</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
-        <v>45390</v>
-      </c>
-      <c r="B337">
-        <v>87.132999999999996</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
-        <v>45391</v>
-      </c>
-      <c r="B338">
-        <v>85.353999999999999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
-        <v>45392</v>
-      </c>
-      <c r="B339">
-        <v>87.039000000000001</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
-        <v>45393</v>
-      </c>
-      <c r="B340">
-        <v>90.616</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
-        <v>45394</v>
-      </c>
-      <c r="B341">
-        <v>88.186000000000007</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
-        <v>45397</v>
-      </c>
-      <c r="B342">
-        <v>86.001000000000005</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
-        <v>45398</v>
-      </c>
-      <c r="B343">
-        <v>87.415000000000006</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B344">
-        <v>84.034999999999997</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
-        <v>45400</v>
-      </c>
-      <c r="B345">
-        <v>84.671000000000006</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
-        <v>45401</v>
-      </c>
-      <c r="B346">
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
-        <v>45404</v>
-      </c>
-      <c r="B347">
-        <v>79.518000000000001</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
-        <v>45405</v>
-      </c>
-      <c r="B348">
-        <v>82.423000000000002</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
-        <v>45406</v>
-      </c>
-      <c r="B349">
-        <v>79.677000000000007</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
-        <v>45407</v>
-      </c>
-      <c r="B350">
-        <v>82.632000000000005</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
-        <v>45408</v>
-      </c>
-      <c r="B351">
-        <v>87.734999999999999</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
-        <v>45411</v>
-      </c>
-      <c r="B352">
-        <v>87.757000000000005</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
-        <v>45412</v>
-      </c>
-      <c r="B353">
-        <v>86.402000000000001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B354">
-        <v>83.040999999999997</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
-        <v>45414</v>
-      </c>
-      <c r="B355">
-        <v>85.816999999999993</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
-        <v>45415</v>
-      </c>
-      <c r="B356">
-        <v>88.789000000000001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
-        <v>45418</v>
-      </c>
-      <c r="B357">
-        <v>92.14</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
-        <v>45419</v>
-      </c>
-      <c r="B358">
-        <v>90.554000000000002</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
-        <v>45420</v>
-      </c>
-      <c r="B359">
-        <v>90.412000000000006</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
-        <v>45421</v>
-      </c>
-      <c r="B360">
-        <v>88.747</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B361">
-        <v>89.878</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
-        <v>45425</v>
-      </c>
-      <c r="B362">
-        <v>90.399000000000001</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
-        <v>45426</v>
-      </c>
-      <c r="B363">
-        <v>91.355999999999995</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
-        <v>45427</v>
-      </c>
-      <c r="B364">
-        <v>94.63</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
-        <v>45428</v>
-      </c>
-      <c r="B365">
-        <v>94.358999999999995</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
-        <v>45429</v>
-      </c>
-      <c r="B366">
-        <v>92.478999999999999</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
-        <v>45432</v>
-      </c>
-      <c r="B367">
-        <v>94.78</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
-        <v>45433</v>
-      </c>
-      <c r="B368">
-        <v>95.385999999999996</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
-        <v>45434</v>
-      </c>
-      <c r="B369">
-        <v>94.95</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
-        <v>45435</v>
-      </c>
-      <c r="B370">
-        <v>103.79900000000001</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
-        <v>45436</v>
-      </c>
-      <c r="B371">
-        <v>106.46899999999999</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
-        <v>45439</v>
-      </c>
-      <c r="B372">
-        <v>106.46899999999999</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
-        <v>45440</v>
-      </c>
-      <c r="B373">
-        <v>113.901</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
-        <v>45441</v>
-      </c>
-      <c r="B374">
-        <v>114.825</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
-        <v>45442</v>
-      </c>
-      <c r="B375">
-        <v>110.5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
-        <v>45443</v>
-      </c>
-      <c r="B376">
-        <v>109.633</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B377">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
-        <v>45447</v>
-      </c>
-      <c r="B378">
-        <v>116.437</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
-        <v>45448</v>
-      </c>
-      <c r="B379">
-        <v>122.44</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
-        <v>45449</v>
-      </c>
-      <c r="B380">
-        <v>120.998</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
-        <v>45450</v>
-      </c>
-      <c r="B381">
-        <v>120.88800000000001</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
-        <v>45453</v>
-      </c>
-      <c r="B382">
-        <v>121.79</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
-        <v>45454</v>
-      </c>
-      <c r="B383">
-        <v>120.91</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
-        <v>45455</v>
-      </c>
-      <c r="B384">
-        <v>125.2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
-        <v>45456</v>
-      </c>
-      <c r="B385">
-        <v>129.61000000000001</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
-        <v>45457</v>
-      </c>
-      <c r="B386">
-        <v>131.88</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
-        <v>45460</v>
-      </c>
-      <c r="B387">
-        <v>130.97999999999999</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
-        <v>45461</v>
-      </c>
-      <c r="B388">
-        <v>135.58000000000001</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
-        <v>45462</v>
-      </c>
-      <c r="B389">
-        <v>135.58000000000001</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
-        <v>45463</v>
-      </c>
-      <c r="B390">
-        <v>130.78</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
-        <v>45464</v>
-      </c>
-      <c r="B391">
-        <v>126.57</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
-        <v>45467</v>
-      </c>
-      <c r="B392">
-        <v>118.11</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
-        <v>45468</v>
-      </c>
-      <c r="B393">
-        <v>126.09</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
-        <v>45469</v>
-      </c>
-      <c r="B394">
-        <v>126.4</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
-        <v>45470</v>
-      </c>
-      <c r="B395">
-        <v>123.99</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
-        <v>45471</v>
-      </c>
-      <c r="B396">
-        <v>123.54</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
-        <v>45474</v>
-      </c>
-      <c r="B397">
-        <v>124.3</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
-        <v>45475</v>
-      </c>
-      <c r="B398">
-        <v>122.67</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
-        <v>45476</v>
-      </c>
-      <c r="B399">
-        <v>128.28</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
-        <v>45477</v>
-      </c>
-      <c r="B400">
-        <v>128.28</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
-        <v>45478</v>
-      </c>
-      <c r="B401">
-        <v>125.83</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
-        <v>45481</v>
-      </c>
-      <c r="B402">
-        <v>128.19999999999999</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
-        <v>45482</v>
-      </c>
-      <c r="B403">
-        <v>131.38</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
-        <v>45483</v>
-      </c>
-      <c r="B404">
-        <v>134.91</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
-        <v>45484</v>
-      </c>
-      <c r="B405">
-        <v>127.4</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
-        <v>45485</v>
-      </c>
-      <c r="B406">
-        <v>129.24</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
-        <v>45488</v>
-      </c>
-      <c r="B407">
-        <v>128.44</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
-        <v>45489</v>
-      </c>
-      <c r="B408">
-        <v>126.36</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="1">
-        <v>45490</v>
-      </c>
-      <c r="B409">
-        <v>117.99</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="1">
-        <v>45491</v>
-      </c>
-      <c r="B410">
-        <v>121.09</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
-        <v>45492</v>
-      </c>
-      <c r="B411">
-        <v>117.93</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
-        <v>45495</v>
-      </c>
-      <c r="B412">
-        <v>123.54</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
-        <v>45496</v>
-      </c>
-      <c r="B413">
-        <v>122.59</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
-        <v>45497</v>
-      </c>
-      <c r="B414">
-        <v>114.25</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
-        <v>45498</v>
-      </c>
-      <c r="B415">
-        <v>112.28</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
-        <v>45499</v>
-      </c>
-      <c r="B416">
-        <v>113.06</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
-        <v>45502</v>
-      </c>
-      <c r="B417">
-        <v>111.59</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="1">
-        <v>45503</v>
-      </c>
-      <c r="B418">
-        <v>103.73</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
-        <v>45504</v>
-      </c>
-      <c r="B419">
-        <v>117.02</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
-        <v>45505</v>
-      </c>
-      <c r="B420">
-        <v>109.21</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
-        <v>45506</v>
-      </c>
-      <c r="B421">
-        <v>107.27</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
-        <v>45509</v>
-      </c>
-      <c r="B422">
-        <v>100.45</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
-        <v>45510</v>
-      </c>
-      <c r="B423">
-        <v>104.25</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
-        <v>45511</v>
-      </c>
-      <c r="B424">
-        <v>98.91</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="1">
-        <v>45512</v>
-      </c>
-      <c r="B425">
-        <v>104.97</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
-        <v>45513</v>
-      </c>
-      <c r="B426">
-        <v>104.75</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
-        <v>45516</v>
-      </c>
-      <c r="B427">
-        <v>109.02</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
-        <v>45517</v>
-      </c>
-      <c r="B428">
-        <v>116.14</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="1">
-        <v>45518</v>
-      </c>
-      <c r="B429">
-        <v>118.08</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B430">
-        <v>122.86</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
-        <v>45520</v>
-      </c>
-      <c r="B431">
-        <v>124.58</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="1">
-        <v>45523</v>
-      </c>
-      <c r="B432">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="1">
-        <v>45524</v>
-      </c>
-      <c r="B433">
-        <v>127.25</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
-        <v>45525</v>
-      </c>
-      <c r="B434">
-        <v>128.5</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="1">
-        <v>45526</v>
-      </c>
-      <c r="B435">
-        <v>123.74</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
-        <v>45527</v>
-      </c>
-      <c r="B436">
-        <v>129.37</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B437">
-        <v>126.46</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="1">
-        <v>45531</v>
-      </c>
-      <c r="B438">
-        <v>128.30000000000001</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="1">
-        <v>45532</v>
-      </c>
-      <c r="B439">
-        <v>125.61</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B440">
-        <v>117.59</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" s="1">
-        <v>45534</v>
-      </c>
-      <c r="B441">
-        <v>119.37</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B442">
-        <v>119.37</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B443">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
-        <v>45539</v>
-      </c>
-      <c r="B444">
-        <v>106.21</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
-        <v>45540</v>
-      </c>
-      <c r="B445">
-        <v>107.21</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
-        <v>45541</v>
-      </c>
-      <c r="B446">
-        <v>102.83</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B447">
-        <v>106.47</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" s="1">
-        <v>45545</v>
-      </c>
-      <c r="B448">
-        <v>108.1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="1">
-        <v>45546</v>
-      </c>
-      <c r="B449">
-        <v>116.91</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="1">
-        <v>45547</v>
-      </c>
-      <c r="B450">
-        <v>119.14</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
-        <v>45548</v>
-      </c>
-      <c r="B451">
-        <v>119.1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="1">
-        <v>45551</v>
-      </c>
-      <c r="B452">
-        <v>116.78</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
-        <v>45552</v>
-      </c>
-      <c r="B453">
-        <v>115.59</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="1">
-        <v>45553</v>
-      </c>
-      <c r="B454">
-        <v>113.37</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
-        <v>45554</v>
-      </c>
-      <c r="B455">
-        <v>117.87</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="1">
-        <v>45555</v>
-      </c>
-      <c r="B456">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="1">
-        <v>45558</v>
-      </c>
-      <c r="B457">
-        <v>116.26</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
-        <v>45559</v>
-      </c>
-      <c r="B458">
-        <v>120.87</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
-        <v>45560</v>
-      </c>
-      <c r="B459">
-        <v>123.51</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
-        <v>45561</v>
-      </c>
-      <c r="B460">
-        <v>124.04</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
-        <v>45562</v>
-      </c>
-      <c r="B461">
-        <v>121.4</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
-        <v>45565</v>
-      </c>
-      <c r="B462">
-        <v>121.44</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
-        <v>45566</v>
-      </c>
-      <c r="B463">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
-        <v>45567</v>
-      </c>
-      <c r="B464">
-        <v>118.85</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
-        <v>45568</v>
-      </c>
-      <c r="B465">
-        <v>122.85</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" s="1">
-        <v>45569</v>
-      </c>
-      <c r="B466">
-        <v>124.92</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" s="1">
-        <v>45572</v>
-      </c>
-      <c r="B467">
-        <v>127.72</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
-        <v>45573</v>
-      </c>
-      <c r="B468">
-        <v>132.88999999999999</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
-        <v>45574</v>
-      </c>
-      <c r="B469">
-        <v>132.65</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
-        <v>45575</v>
-      </c>
-      <c r="B470">
-        <v>134.81</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
-        <v>45576</v>
-      </c>
-      <c r="B471">
-        <v>134.80000000000001</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
-        <v>45579</v>
-      </c>
-      <c r="B472">
-        <v>138.07</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
-        <v>45580</v>
-      </c>
-      <c r="B473">
-        <v>131.6</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
-        <v>45581</v>
-      </c>
-      <c r="B474">
-        <v>135.72</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
-        <v>45582</v>
-      </c>
-      <c r="B475">
-        <v>136.93</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
-        <v>45583</v>
-      </c>
-      <c r="B476">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" s="1">
-        <v>45586</v>
-      </c>
-      <c r="B477">
-        <v>143.71</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="1">
-        <v>45587</v>
-      </c>
-      <c r="B478">
-        <v>143.59</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="1">
-        <v>45588</v>
-      </c>
-      <c r="B479">
-        <v>139.56</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="1">
-        <v>45589</v>
-      </c>
-      <c r="B480">
-        <v>140.41</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="1">
-        <v>45590</v>
-      </c>
-      <c r="B481">
-        <v>141.54</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="1">
-        <v>45593</v>
-      </c>
-      <c r="B482">
-        <v>140.52000000000001</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
-        <v>45594</v>
-      </c>
-      <c r="B483">
-        <v>141.25</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
-        <v>45595</v>
-      </c>
-      <c r="B484">
-        <v>139.33500000000001</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
-        <v>45596</v>
-      </c>
-      <c r="B485">
-        <v>132.76</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
-        <v>45597</v>
-      </c>
-      <c r="B486">
-        <v>135.4</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B487">
-        <v>136.05000000000001</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
-        <v>45601</v>
-      </c>
-      <c r="B488">
-        <v>139.91</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
-        <v>45602</v>
-      </c>
-      <c r="B489">
-        <v>145.61000000000001</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
-        <v>45603</v>
-      </c>
-      <c r="B490">
-        <v>148.88</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
-        <v>45604</v>
-      </c>
-      <c r="B491">
-        <v>147.63</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
-        <v>45607</v>
-      </c>
-      <c r="B492">
-        <v>145.26</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>45608</v>
-      </c>
-      <c r="B493">
-        <v>148.29</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" s="1">
-        <v>45609</v>
-      </c>
-      <c r="B494">
-        <v>146.27000000000001</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495" s="1">
-        <v>45610</v>
-      </c>
-      <c r="B495">
-        <v>146.76</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A496" s="1">
-        <v>45611</v>
-      </c>
-      <c r="B496">
-        <v>141.97999999999999</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A497" s="1">
-        <v>45614</v>
-      </c>
-      <c r="B497">
-        <v>140.15</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
-        <v>45615</v>
-      </c>
-      <c r="B498">
-        <v>147.01</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A499" s="1">
-        <v>45616</v>
-      </c>
-      <c r="B499">
-        <v>145.88999999999999</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500" s="1">
-        <v>45617</v>
-      </c>
-      <c r="B500">
-        <v>146.66999999999999</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A501" s="1">
-        <v>45618</v>
-      </c>
-      <c r="B501">
-        <v>141.94999999999999</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A502" s="1">
-        <v>45621</v>
-      </c>
-      <c r="B502">
-        <v>136.02000000000001</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
-        <v>45622</v>
-      </c>
-      <c r="B503">
-        <v>136.91999999999999</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
-        <v>45623</v>
-      </c>
-      <c r="B504">
-        <v>135.34</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505" s="1">
-        <v>45624</v>
-      </c>
-      <c r="B505">
-        <v>135.34</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A506" s="1">
-        <v>45625</v>
-      </c>
-      <c r="B506">
-        <v>138.25</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B507">
-        <v>138.63</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508" s="1">
-        <v>45629</v>
-      </c>
-      <c r="B508">
-        <v>140.26</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A509" s="1">
-        <v>45630</v>
-      </c>
-      <c r="B509">
-        <v>145.13999999999999</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A510" s="1">
-        <v>45631</v>
-      </c>
-      <c r="B510">
-        <v>145.06</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="1">
-        <v>45632</v>
-      </c>
-      <c r="B511">
-        <v>142.44</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A512" s="1">
-        <v>45635</v>
-      </c>
-      <c r="B512">
-        <v>138.81</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513" s="1">
-        <v>45636</v>
-      </c>
-      <c r="B513">
-        <v>135.07</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514" s="1">
-        <v>45637</v>
-      </c>
-      <c r="B514">
-        <v>139.31</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A515" s="1">
-        <v>45638</v>
-      </c>
-      <c r="B515">
-        <v>137.34</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A516" s="1">
-        <v>45639</v>
-      </c>
-      <c r="B516">
-        <v>134.25</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A517" s="1">
-        <v>45642</v>
-      </c>
-      <c r="B517">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A518" s="1">
-        <v>45643</v>
-      </c>
-      <c r="B518">
-        <v>130.38999999999999</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A519" s="1">
-        <v>45644</v>
-      </c>
-      <c r="B519">
-        <v>128.91</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A520" s="1">
-        <v>45645</v>
-      </c>
-      <c r="B520">
-        <v>130.68</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A521" s="1">
-        <v>45646</v>
-      </c>
-      <c r="B521">
-        <v>134.69999999999999</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A522" s="1">
-        <v>45649</v>
-      </c>
-      <c r="B522">
-        <v>139.66999999999999</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A523" s="1">
-        <v>45650</v>
-      </c>
-      <c r="B523">
-        <v>140.22</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A524" s="1">
-        <v>45651</v>
-      </c>
-      <c r="B524">
-        <v>140.22</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A525" s="1">
-        <v>45652</v>
-      </c>
-      <c r="B525">
-        <v>139.93</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A526" s="1">
-        <v>45653</v>
-      </c>
-      <c r="B526">
-        <v>137.01</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A527" s="1">
-        <v>45656</v>
-      </c>
-      <c r="B527">
-        <v>137.49</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A528" s="1">
-        <v>45657</v>
-      </c>
-      <c r="B528">
-        <v>134.29</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529" s="1">
-        <v>45658</v>
-      </c>
-      <c r="B529">
-        <v>134.29</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A530" s="1">
-        <v>45659</v>
-      </c>
-      <c r="B530">
-        <v>138.31</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="1">
-        <v>45660</v>
-      </c>
-      <c r="B531">
-        <v>144.47</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="1">
-        <v>45663</v>
-      </c>
-      <c r="B532">
-        <v>149.43</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="1">
-        <v>45664</v>
-      </c>
-      <c r="B533">
-        <v>140.13999999999999</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="1">
-        <v>45665</v>
-      </c>
-      <c r="B534">
-        <v>140.11000000000001</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A535" s="1">
-        <v>45666</v>
-      </c>
-      <c r="B535">
-        <v>140.11000000000001</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="1">
-        <v>45667</v>
-      </c>
-      <c r="B536">
-        <v>135.91</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="1">
-        <v>45670</v>
-      </c>
-      <c r="B537">
-        <v>133.22999999999999</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="1">
-        <v>45671</v>
-      </c>
-      <c r="B538">
-        <v>131.76</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="1">
-        <v>45672</v>
-      </c>
-      <c r="B539">
-        <v>136.24</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="1">
-        <v>45673</v>
-      </c>
-      <c r="B540">
-        <v>133.57</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="1">
-        <v>45674</v>
-      </c>
-      <c r="B541">
-        <v>137.71</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="1">
-        <v>45677</v>
-      </c>
-      <c r="B542">
-        <v>137.71</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="1">
-        <v>45678</v>
-      </c>
-      <c r="B543">
-        <v>140.83000000000001</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="1">
-        <v>45679</v>
-      </c>
-      <c r="B544">
-        <v>147.07</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="1">
-        <v>45680</v>
-      </c>
-      <c r="B545">
-        <v>147.22</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546" s="1">
-        <v>45681</v>
-      </c>
-      <c r="B546">
-        <v>142.62</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A547" s="1">
-        <v>45684</v>
-      </c>
-      <c r="B547">
-        <v>118.42</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548" s="1">
-        <v>45685</v>
-      </c>
-      <c r="B548">
-        <v>128.99</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="1">
-        <v>45686</v>
-      </c>
-      <c r="B549">
-        <v>123.7</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="1">
-        <v>45687</v>
-      </c>
-      <c r="B550">
-        <v>124.65</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="1">
-        <v>45688</v>
-      </c>
-      <c r="B551">
-        <v>120.07</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="1">
-        <v>45691</v>
-      </c>
-      <c r="B552">
-        <v>116.66</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553" s="1">
-        <v>45692</v>
-      </c>
-      <c r="B553">
-        <v>118.65</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554" s="1">
-        <v>45693</v>
-      </c>
-      <c r="B554">
-        <v>124.83</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555" s="1">
-        <v>45694</v>
-      </c>
-      <c r="B555">
-        <v>128.68</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556" s="1">
-        <v>45695</v>
-      </c>
-      <c r="B556">
-        <v>129.84</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557" s="1">
-        <v>45698</v>
-      </c>
-      <c r="B557">
-        <v>133.57</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558" s="1">
-        <v>45699</v>
-      </c>
-      <c r="B558">
-        <v>132.80000000000001</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559" s="1">
-        <v>45700</v>
-      </c>
-      <c r="B559">
-        <v>131.13999999999999</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" s="1">
-        <v>45701</v>
-      </c>
-      <c r="B560">
-        <v>135.29</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A561" s="1">
-        <v>45702</v>
-      </c>
-      <c r="B561">
-        <v>138.85</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562" s="1">
-        <v>45705</v>
-      </c>
-      <c r="B562">
-        <v>138.85</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563" s="1">
-        <v>45706</v>
-      </c>
-      <c r="B563">
-        <v>139.4</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A564" s="1">
-        <v>45707</v>
-      </c>
-      <c r="B564">
-        <v>139.22999999999999</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="1">
-        <v>45708</v>
-      </c>
-      <c r="B565">
-        <v>140.11000000000001</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A566" s="1">
-        <v>45709</v>
-      </c>
-      <c r="B566">
-        <v>134.43</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A567" s="1">
-        <v>45712</v>
-      </c>
-      <c r="B567">
-        <v>130.28</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A568" s="1">
-        <v>45713</v>
-      </c>
-      <c r="B568">
-        <v>126.63</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A569" s="1">
-        <v>45714</v>
-      </c>
-      <c r="B569">
-        <v>131.28</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A570" s="1">
-        <v>45715</v>
-      </c>
-      <c r="B570">
-        <v>120.15</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A571" s="1">
-        <v>45716</v>
-      </c>
-      <c r="B571">
-        <v>124.92</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A572" s="1">
-        <v>45719</v>
-      </c>
-      <c r="B572">
-        <v>114.06</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A573" s="1">
-        <v>45720</v>
-      </c>
-      <c r="B573">
-        <v>115.99</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A574" s="1">
-        <v>45721</v>
-      </c>
-      <c r="B574">
-        <v>117.3</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A575" s="1">
-        <v>45722</v>
-      </c>
-      <c r="B575">
-        <v>110.57</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A576" s="1">
-        <v>45723</v>
-      </c>
-      <c r="B576">
-        <v>112.69</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577" s="1">
-        <v>45726</v>
-      </c>
-      <c r="B577">
-        <v>106.98</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A578" s="1">
-        <v>45727</v>
-      </c>
-      <c r="B578">
-        <v>108.76</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A579" s="1">
-        <v>45728</v>
-      </c>
-      <c r="B579">
-        <v>115.74</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A580" s="1">
-        <v>45729</v>
-      </c>
-      <c r="B580">
-        <v>115.58</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A581" s="1">
-        <v>45730</v>
-      </c>
-      <c r="B581">
-        <v>121.67</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A582" s="1">
-        <v>45733</v>
-      </c>
-      <c r="B582">
-        <v>119.53</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A583" s="1">
-        <v>45734</v>
-      </c>
-      <c r="B583">
-        <v>115.43</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A584" s="1">
-        <v>45735</v>
-      </c>
-      <c r="B584">
-        <v>117.52</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A585" s="1">
-        <v>45736</v>
-      </c>
-      <c r="B585">
-        <v>118.53</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A586" s="1">
-        <v>45737</v>
-      </c>
-      <c r="B586">
-        <v>117.7</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A587" s="1">
-        <v>45740</v>
-      </c>
-      <c r="B587">
-        <v>121.41</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A588" s="1">
-        <v>45741</v>
-      </c>
-      <c r="B588">
-        <v>120.69</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A589" s="1">
-        <v>45742</v>
-      </c>
-      <c r="B589">
-        <v>113.76</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A590" s="1">
-        <v>45743</v>
-      </c>
-      <c r="B590">
-        <v>111.43</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591" s="1">
-        <v>45744</v>
-      </c>
-      <c r="B591">
-        <v>109.67</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A592" s="1">
-        <v>45747</v>
-      </c>
-      <c r="B592">
-        <v>108.38</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593" s="1">
-        <v>45748</v>
-      </c>
-      <c r="B593">
-        <v>110.15</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594" s="1">
-        <v>45749</v>
-      </c>
-      <c r="B594">
-        <v>110.42</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595" s="1">
-        <v>45750</v>
-      </c>
-      <c r="B595">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="1">
-        <v>45751</v>
-      </c>
-      <c r="B596">
-        <v>94.31</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="1">
-        <v>45754</v>
-      </c>
-      <c r="B597">
-        <v>97.64</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598" s="1">
-        <v>45755</v>
-      </c>
-      <c r="B598">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599" s="1">
-        <v>45756</v>
-      </c>
-      <c r="B599">
-        <v>114.33</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600" s="1">
-        <v>45757</v>
-      </c>
-      <c r="B600">
-        <v>107.57</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601" s="1">
-        <v>45758</v>
-      </c>
-      <c r="B601">
-        <v>110.93</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602" s="1">
-        <v>45761</v>
-      </c>
-      <c r="B602">
-        <v>110.71</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A603" s="1">
-        <v>45762</v>
-      </c>
-      <c r="B603">
-        <v>112.2</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604" s="1">
-        <v>45763</v>
-      </c>
-      <c r="B604">
-        <v>104.49</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A605" s="1">
-        <v>45764</v>
-      </c>
-      <c r="B605">
-        <v>101.49</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A606" s="1">
-        <v>45765</v>
-      </c>
-      <c r="B606">
-        <v>101.49</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A607" s="1">
-        <v>45768</v>
-      </c>
-      <c r="B607">
-        <v>96.91</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A608" s="1">
-        <v>45769</v>
-      </c>
-      <c r="B608">
-        <v>98.89</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A609" s="1">
-        <v>45770</v>
-      </c>
-      <c r="B609">
-        <v>102.71</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A610" s="1">
-        <v>45771</v>
-      </c>
-      <c r="B610">
-        <v>106.43</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A611" s="1">
-        <v>45772</v>
-      </c>
-      <c r="B611">
-        <v>111.01</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A612" s="1">
-        <v>45775</v>
-      </c>
-      <c r="B612">
-        <v>108.73</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A613" s="1">
-        <v>45776</v>
-      </c>
-      <c r="B613">
-        <v>109.02</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A614" s="1">
-        <v>45777</v>
-      </c>
-      <c r="B614">
-        <v>108.92</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A615" s="1">
-        <v>45778</v>
-      </c>
-      <c r="B615">
-        <v>111.61</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A616" s="1">
-        <v>45779</v>
-      </c>
-      <c r="B616">
-        <v>114.5</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617" s="1">
-        <v>45782</v>
-      </c>
-      <c r="B617">
-        <v>113.82</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618" s="1">
-        <v>45783</v>
-      </c>
-      <c r="B618">
-        <v>113.54</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A619" s="1">
-        <v>45784</v>
-      </c>
-      <c r="B619">
-        <v>117.06</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A620" s="1">
-        <v>45785</v>
-      </c>
-      <c r="B620">
-        <v>117.37</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A621" s="1">
-        <v>45786</v>
-      </c>
-      <c r="B621">
-        <v>116.65</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A622" s="1">
-        <v>45789</v>
-      </c>
-      <c r="B622">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A623" s="1">
-        <v>45790</v>
-      </c>
-      <c r="B623">
-        <v>129.93</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A624" s="1">
-        <v>45791</v>
-      </c>
-      <c r="B624">
-        <v>135.34</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625" s="1">
-        <v>45792</v>
-      </c>
-      <c r="B625">
-        <v>134.83000000000001</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626" s="1">
-        <v>45793</v>
-      </c>
-      <c r="B626">
-        <v>135.4</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627" s="1">
-        <v>45796</v>
-      </c>
-      <c r="B627">
-        <v>135.57</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628" s="1">
-        <v>45797</v>
-      </c>
-      <c r="B628">
-        <v>134.38</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A629" s="1">
-        <v>45798</v>
-      </c>
-      <c r="B629">
-        <v>131.80000000000001</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A630" s="1">
-        <v>45799</v>
-      </c>
-      <c r="B630">
-        <v>132.83000000000001</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A631" s="1">
-        <v>45800</v>
-      </c>
-      <c r="B631">
-        <v>131.29</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A632" s="1">
-        <v>45803</v>
-      </c>
-      <c r="B632">
-        <v>131.29</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A633" s="1">
-        <v>45804</v>
-      </c>
-      <c r="B633">
-        <v>135.5</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A634" s="1">
-        <v>45805</v>
-      </c>
-      <c r="B634">
-        <v>134.81</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A635" s="1">
-        <v>45806</v>
-      </c>
-      <c r="B635">
-        <v>139.19</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A636" s="1">
-        <v>45807</v>
-      </c>
-      <c r="B636">
-        <v>135.13</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A637" s="1">
-        <v>45810</v>
-      </c>
-      <c r="B637">
-        <v>137.38</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A638" s="1">
-        <v>45811</v>
-      </c>
-      <c r="B638">
-        <v>141.22</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639" s="1">
-        <v>45812</v>
-      </c>
-      <c r="B639">
-        <v>141.91999999999999</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640" s="1">
-        <v>45813</v>
-      </c>
-      <c r="B640">
-        <v>139.99</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" s="1">
-        <v>45814</v>
-      </c>
-      <c r="B641">
-        <v>141.72</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="1">
-        <v>45817</v>
-      </c>
-      <c r="B642">
-        <v>142.63</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" s="1">
-        <v>45818</v>
-      </c>
-      <c r="B643">
-        <v>143.96</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" s="1">
-        <v>45819</v>
-      </c>
-      <c r="B644">
-        <v>142.83000000000001</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" s="1">
-        <v>45820</v>
-      </c>
-      <c r="B645">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" s="1">
-        <v>45821</v>
-      </c>
-      <c r="B646">
-        <v>141.97</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" s="1">
-        <v>45824</v>
-      </c>
-      <c r="B647">
-        <v>144.69</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" s="1">
-        <v>45825</v>
-      </c>
-      <c r="B648">
-        <v>144.12</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" s="1">
-        <v>45826</v>
-      </c>
-      <c r="B649">
-        <v>145.47999999999999</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650" s="1">
-        <v>45827</v>
-      </c>
-      <c r="B650">
-        <v>145.47999999999999</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" s="1">
-        <v>45828</v>
-      </c>
-      <c r="B651">
-        <v>143.85</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" s="1">
-        <v>45831</v>
-      </c>
-      <c r="B652">
-        <v>144.16999999999999</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" s="1">
-        <v>45832</v>
-      </c>
-      <c r="B653">
-        <v>147.9</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" s="1">
-        <v>45833</v>
-      </c>
-      <c r="B654">
-        <v>154.31</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" s="1">
-        <v>45834</v>
-      </c>
-      <c r="B655">
-        <v>155.02000000000001</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" s="1">
-        <v>45835</v>
-      </c>
-      <c r="B656">
-        <v>157.75</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657" s="1">
-        <v>45838</v>
-      </c>
-      <c r="B657">
-        <v>157.99</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658" s="1">
-        <v>45839</v>
-      </c>
-      <c r="B658">
-        <v>153.30000000000001</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659" s="1">
-        <v>45840</v>
-      </c>
-      <c r="B659">
-        <v>157.25</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660" s="1">
-        <v>45841</v>
-      </c>
-      <c r="B660">
-        <v>159.34</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661" s="1">
-        <v>45842</v>
-      </c>
-      <c r="B661">
-        <v>159.34</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" s="1">
-        <v>45845</v>
-      </c>
-      <c r="B662">
-        <v>158.24</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A663" s="1">
-        <v>45846</v>
-      </c>
-      <c r="B663">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A664" s="1">
-        <v>45847</v>
-      </c>
-      <c r="B664">
-        <v>162.88</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A665" s="1">
-        <v>45848</v>
-      </c>
-      <c r="B665">
-        <v>164.1</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A666" s="1">
-        <v>45849</v>
-      </c>
-      <c r="B666">
-        <v>164.92</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A667" s="1">
-        <v>45852</v>
-      </c>
-      <c r="B667">
-        <v>164.07</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A668" s="1">
-        <v>45853</v>
-      </c>
-      <c r="B668">
-        <v>170.7</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A669" s="1">
-        <v>45854</v>
-      </c>
-      <c r="B669">
-        <v>171.37</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A670" s="1">
-        <v>45855</v>
-      </c>
-      <c r="B670">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A671" s="1">
-        <v>45856</v>
-      </c>
-      <c r="B671">
-        <v>172.41</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A672" s="1">
-        <v>45859</v>
-      </c>
-      <c r="B672">
-        <v>171.38</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673" s="1">
-        <v>45860</v>
-      </c>
-      <c r="B673">
-        <v>167.03</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674" s="1">
-        <v>45861</v>
-      </c>
-      <c r="B674">
-        <v>170.78</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A675" s="1">
-        <v>45862</v>
-      </c>
-      <c r="B675">
-        <v>173.74</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A676" s="1">
-        <v>45863</v>
-      </c>
-      <c r="B676">
-        <v>173.5</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A677" s="1">
-        <v>45866</v>
-      </c>
-      <c r="B677">
-        <v>176.75</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A678" s="1">
-        <v>45867</v>
-      </c>
-      <c r="B678">
-        <v>175.51</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A679" s="1">
-        <v>45868</v>
-      </c>
-      <c r="B679">
-        <v>179.27</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A680" s="1">
-        <v>45869</v>
-      </c>
-      <c r="B680">
-        <v>177.87</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A681" s="1">
-        <v>45870</v>
-      </c>
-      <c r="B681">
-        <v>173.72</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A682" s="1">
-        <v>45873</v>
-      </c>
-      <c r="B682">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683" s="1">
-        <v>45874</v>
-      </c>
-      <c r="B683">
-        <v>178.26</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684" s="1">
-        <v>45875</v>
-      </c>
-      <c r="B684">
-        <v>179.42</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A685" s="1">
-        <v>45876</v>
-      </c>
-      <c r="B685">
-        <v>180.77</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686" s="1">
-        <v>45877</v>
-      </c>
-      <c r="B686">
-        <v>182.7</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687" s="1">
-        <v>45880</v>
-      </c>
-      <c r="B687">
-        <v>182.06</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A688" s="1">
-        <v>45881</v>
-      </c>
-      <c r="B688">
-        <v>183.16</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A689" s="1">
-        <v>45882</v>
-      </c>
-      <c r="B689">
-        <v>181.59</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A690" s="1">
-        <v>45883</v>
-      </c>
-      <c r="B690">
-        <v>182.02</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A691" s="1">
-        <v>45884</v>
-      </c>
-      <c r="B691">
-        <v>180.45</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A692" s="1">
-        <v>45887</v>
-      </c>
-      <c r="B692">
-        <v>182.01</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A693" s="1">
-        <v>45888</v>
-      </c>
-      <c r="B693">
-        <v>175.64</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A694" s="1">
-        <v>45889</v>
-      </c>
-      <c r="B694">
-        <v>175.4</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A695" s="1">
-        <v>45890</v>
-      </c>
-      <c r="B695">
-        <v>174.98</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A696" s="1">
-        <v>45891</v>
-      </c>
-      <c r="B696">
-        <v>177.99</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A697" s="1">
-        <v>45894</v>
-      </c>
-      <c r="B697">
-        <v>179.81</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A698" s="1">
-        <v>45895</v>
-      </c>
-      <c r="B698">
-        <v>181.77</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A699" s="1">
-        <v>45896</v>
-      </c>
-      <c r="B699">
-        <v>181.6</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A700" s="1">
-        <v>45897</v>
-      </c>
-      <c r="B700">
-        <v>180.17</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A701" s="1">
-        <v>45898</v>
-      </c>
-      <c r="B701">
-        <v>174.18</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A702" s="1">
-        <v>45901</v>
-      </c>
-      <c r="B702">
-        <v>174.18</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A703" s="1">
-        <v>45902</v>
-      </c>
-      <c r="B703">
-        <v>170.78</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A704" s="1">
-        <v>45903</v>
-      </c>
-      <c r="B704">
-        <v>170.62</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A705" s="1">
-        <v>45904</v>
-      </c>
-      <c r="B705">
-        <v>171.66</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A706" s="1">
-        <v>45905</v>
-      </c>
-      <c r="B706">
-        <v>167.02</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A707" s="1">
-        <v>45908</v>
-      </c>
-      <c r="B707">
-        <v>168.31</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A708" s="1">
-        <v>45909</v>
-      </c>
-      <c r="B708">
-        <v>170.76</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A709" s="1">
-        <v>45910</v>
-      </c>
-      <c r="B709">
-        <v>177.33</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A710" s="1">
-        <v>45911</v>
-      </c>
-      <c r="B710">
-        <v>177.17</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A711" s="1">
-        <v>45912</v>
-      </c>
-      <c r="B711">
-        <v>177.82</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A712" s="1">
-        <v>45915</v>
-      </c>
-      <c r="B712">
         <v>175.17500000000001</v>
       </c>
     </row>
